--- a/biology/Botanique/Kenroku-en/Kenroku-en.xlsx
+++ b/biology/Botanique/Kenroku-en/Kenroku-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kenroku-en (兼六園?, « jardins des six attributs ») est un jardin japonais situé à Kanazawa, dans la préfecture d'Ishikawa au Japon.
@@ -512,9 +524,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin Kenroku est situé dans le nord-ouest de la ville de Kanazawa (préfecture d'Ishikawa), sur l'île de Honshū, au Japon. Situé à 292 km à vol d'oiseau au nord-ouest de l'agglomération de Tokyo, il occupe presque toute la superficie du quartier Kenroku, dans le prolongement sud-est du parc du château de Kanazawa[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Kenroku est situé dans le nord-ouest de la ville de Kanazawa (préfecture d'Ishikawa), sur l'île de Honshū, au Japon. Situé à 292 km à vol d'oiseau au nord-ouest de l'agglomération de Tokyo, il occupe presque toute la superficie du quartier Kenroku, dans le prolongement sud-est du parc du château de Kanazawa,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kenroku-en couvre 10,074 ha[3],[2],[6] et abrite 8 200 arbres et arbustes représentant 160 espèces ou variétés de plantes[5].
-Avec le Kairaku-en de Mito et le Kōraku-en d'Okayama, le Kenroku-en est l'un des trois jardins les plus célèbres du Japon[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kenroku-en couvre 10,074 ha et abrite 8 200 arbres et arbustes représentant 160 espèces ou variétés de plantes.
+Avec le Kairaku-en de Mito et le Kōraku-en d'Okayama, le Kenroku-en est l'un des trois jardins les plus célèbres du Japon,.
 			La lanterne de Kenroku-en.
 			La plus vieille fontaine du Japon à Kenroku-en.
 			Un pin, l'un des plus anciens arbres du Japon.
@@ -578,7 +594,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kenroku-en a été développé des années 1620 aux années 1840 par la famille Maeda, les dirigeants de l'ancienne province de Kaga. Le jardin a été détruit en 1759 par un incendie et restauré en 1774.
 Le Kenroku-en a été ouvert au public le 7 mai 1874.
@@ -610,7 +628,9 @@
           <t>Nom et emblème</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin doit son nom à Rakua Shirakawa qui s'est inspiré du nom d'un livre chinois écrit par le poète Li Gefei.
 L’emblème de Kenroku-en, la lanterne à pieds courbes (琴柱灯籠, kotoji tôrô?), est connue pour être la première à avoir eu les pieds de longueurs différentes.
